--- a/biology/Botanique/Paspale_à_deux_épis/Paspale_à_deux_épis.xlsx
+++ b/biology/Botanique/Paspale_à_deux_épis/Paspale_à_deux_épis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspale distique, Paspale à deux épis, Digitaire des marais
-Le Paspale distique, Paspale à deux épis ou Digitaire des marais (Paspalum distichum), est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique du Sud[1].
-C'est une plante herbacée, vivace, traçante grâce à ses rhizomes et ses nombreux stolons grêles et allongés, formant souvent des tapis lâches. Elle est considérée en Europe comme une plante envahissante[2].
+Le Paspale distique, Paspale à deux épis ou Digitaire des marais (Paspalum distichum), est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique du Sud.
+C'est une plante herbacée, vivace, traçante grâce à ses rhizomes et ses nombreux stolons grêles et allongés, formant souvent des tapis lâches. Elle est considérée en Europe comme une plante envahissante.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 septembre 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 septembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Paspalum distichum subsp. distichum
 sous-espèce Paspalum distichum subsp. paspalodes (Michx.) Thell.
 sous-espèce Paspalum distichum subsp. paucispicatum (Vasey) Verloove &amp; Reynders
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,10 +576,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Paspale distique est une plante herbacée vivace de 1 m de haut. La tiges ronde et creuse possède des entrenœuds poilus et renflés. Les feuilles linéaires mesurent de 5 à 15 mm de long  et de 0,2 à 0,7 mm de large[1].
-Appareil reproducteur
-L'inflorescence en forme de V est formée de 2 épis vert pâle denses de 2 à 7 cm de long[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paspale distique est une plante herbacée vivace de 1 m de haut. La tiges ronde et creuse possède des entrenœuds poilus et renflés. Les feuilles linéaires mesurent de 5 à 15 mm de long  et de 0,2 à 0,7 mm de large.
 </t>
         </is>
       </c>
@@ -576,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,15 +608,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paspalum distichum a une aire de répartition qui couvre la plupart des régions tempérées chaudes, tropicales et subtropicales du monde, régions dans lesquelles sa croissance est favorisée par sa photosynthèse en C4 .
-On rencontre cette espèce notamment  en Amérique du Nord, à l'exception du Canada, en Amérique centrale et en Amérique du Sud, en Europe méridionale, en Asie dans le sud de l'ex-URSS, au Moyen-Orient, dans le sous-continent indien, en Asie du sud est, en Chine, au Japon et en Corée, aux Philippines,  en Australie et Nouvelle-Zélande, ainsi que dans les îles du Pacifique. En Afrique, on ne la trouve qu'en Afrique du Nord et en Afrique australe[4].
-Son aire d'origine n'est pas connue de façon certaine : on la considère généralement comme indigène en Amérique du Nord et du Sud, d'où elle a été introduite en Europe et dans la plupart des régions d'Asie. Certains chercheurs estiment qu'elle serait originaire de la zone Pacifique, bien qu'elle ait été introduite à Hawaï, en Australie et en Nouvelle-Zélande. Pour d'autres elle serait native d'Afrique australe et d'Australie[4].
-En France, le paspale distique a été introduit à Bordeaux en 1800, et au bord de la Loire dans la première moitié du XXe siècle[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence en forme de V est formée de 2 épis vert pâle denses de 2 à 7 cm de long.
 </t>
         </is>
       </c>
@@ -610,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,13 +645,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Paspale colonise les milieux humides : les plans d'eau, les rizières du sud de la France, les prairies inondables, les gazons irrigués. Favorisé par la propagation de ses rhizomes, il s'impose aux plantes concurrentes en particulier par forte chaleur, portant ainsi atteinte à la biodiversité des milieux qu'il colonise.
-Le Paspale distique est classé comme adventice nuisible des cultures dans 61 pays[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paspalum distichum a une aire de répartition qui couvre la plupart des régions tempérées chaudes, tropicales et subtropicales du monde, régions dans lesquelles sa croissance est favorisée par sa photosynthèse en C4 .
+On rencontre cette espèce notamment  en Amérique du Nord, à l'exception du Canada, en Amérique centrale et en Amérique du Sud, en Europe méridionale, en Asie dans le sud de l'ex-URSS, au Moyen-Orient, dans le sous-continent indien, en Asie du sud est, en Chine, au Japon et en Corée, aux Philippines,  en Australie et Nouvelle-Zélande, ainsi que dans les îles du Pacifique. En Afrique, on ne la trouve qu'en Afrique du Nord et en Afrique australe.
+Son aire d'origine n'est pas connue de façon certaine : on la considère généralement comme indigène en Amérique du Nord et du Sud, d'où elle a été introduite en Europe et dans la plupart des régions d'Asie. Certains chercheurs estiment qu'elle serait originaire de la zone Pacifique, bien qu'elle ait été introduite à Hawaï, en Australie et en Nouvelle-Zélande. Pour d'autres elle serait native d'Afrique australe et d'Australie.
+En France, le paspale distique a été introduit à Bordeaux en 1800, et au bord de la Loire dans la première moitié du XXe siècle.
 </t>
         </is>
       </c>
@@ -642,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,31 +681,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espèce envahissante</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, cette espèce de plante est considérée comme invasive[5],[6]. En Inde, sa présence en bord de cours d'eau a été reconnue comme responsable de la diminution des populations de poisson[1].
-Conséquences
-Sur la biodiversité
-Le Paspale distique forme des colonies denses qui concurrencent la végétation indigène et qui peuvent dégrader certains habitats d'intérêt communautaire[1],[7].
-Sur les cultures
-Lorsqu'il forme des grandes colonies dans les rizières, il peut causer une diminution ou parfois même causer une perte des cultures. L'espèce est reconnue comme adventice secondaire du maïs et du tournesol. Il engendre par ailleurs des problèmes dans la gestion de l'eau[1].
-Mesures d'éradication
-IL est important d'éviter de propager la plante en raison de son caractère invasif.
-Méthodes physiques
-Arrachage manuel
-L'arrachage manuel n'est envisageable que pour des zones limitées[1].
-Coupe rase
-Cette méthode permet de limiter la production de graines qui peuvent disperser la plante mais ne permet pas de l'éradiquer[1].
-Méthodes biologiques
-Revégétalisation
-Cette méthode est efficace pour freiner l'expansion de la plante car le Paspale distique est peu tolérable à l'ombre[1].
-Pâturage
-Cette méthode peut aider à contrôler l'espèce[1].
-Méthodes chimiques
-Les méthodes chimiques sont peu ou pas efficaces contre le Paspale distique[1].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paspale colonise les milieux humides : les plans d'eau, les rizières du sud de la France, les prairies inondables, les gazons irrigués. Favorisé par la propagation de ses rhizomes, il s'impose aux plantes concurrentes en particulier par forte chaleur, portant ainsi atteinte à la biodiversité des milieux qu'il colonise.
+Le Paspale distique est classé comme adventice nuisible des cultures dans 61 pays.
 </t>
         </is>
       </c>
@@ -692,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paspale_%C3%A0_deux_%C3%A9pis</t>
+          <t>Paspale_à_deux_épis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,15 +715,336 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, cette espèce de plante est considérée comme invasive,. En Inde, sa présence en bord de cours d'eau a été reconnue comme responsable de la diminution des populations de poisson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Conséquences</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sur la biodiversité</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paspale distique forme des colonies denses qui concurrencent la végétation indigène et qui peuvent dégrader certains habitats d'intérêt communautaire,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conséquences</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sur les cultures</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il forme des grandes colonies dans les rizières, il peut causer une diminution ou parfois même causer une perte des cultures. L'espèce est reconnue comme adventice secondaire du maïs et du tournesol. Il engendre par ailleurs des problèmes dans la gestion de l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IL est important d'éviter de propager la plante en raison de son caractère invasif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Méthodes physiques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrachage manuel
+L'arrachage manuel n'est envisageable que pour des zones limitées.
+Coupe rase
+Cette méthode permet de limiter la production de graines qui peuvent disperser la plante mais ne permet pas de l'éradiquer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Méthodes biologiques</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Revégétalisation
+Cette méthode est efficace pour freiner l'expansion de la plante car le Paspale distique est peu tolérable à l'ombre.
+Pâturage
+Cette méthode peut aider à contrôler l'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Méthodes chimiques</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthodes chimiques sont peu ou pas efficaces contre le Paspale distique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lutte contre l'érosion
-Le Paspale distique est utilisé pour lutter contre l'érosion grâce à son réseau de stolons[1].
-Fourrage
-Le Paspale distique est utilisé comme plante fourragère et comme plante de pâturage[1].
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lutte contre l'érosion</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paspale distique est utilisé pour lutter contre l'érosion grâce à son réseau de stolons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paspale_à_deux_épis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspale_%C3%A0_deux_%C3%A9pis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fourrage</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paspale distique est utilisé comme plante fourragère et comme plante de pâturage.
 </t>
         </is>
       </c>
